--- a/TestData/Email.xlsx
+++ b/TestData/Email.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\CloudAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720E2C1C-68EC-4563-816A-38B511D71EC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA029ABC-7011-4919-93B4-F88E1BA7FC77}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -417,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B209AA-B2EF-4EBA-BC33-9B6FB480ED25}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -438,11 +439,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -454,7 +450,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -486,4 +482,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42149947-DFBB-47C9-AD95-CFA522AF6907}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>